--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
@@ -5,20 +5,24 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/创客空间配套设施建设项目/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="2400" windowWidth="26960" windowHeight="15380" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="9600" yWindow="1020" windowWidth="29660" windowHeight="20780" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="1.创意设计" sheetId="1" r:id="rId1"/>
-    <sheet name="2.创意实现" sheetId="3" r:id="rId2"/>
-    <sheet name="3.智能沙盘" sheetId="4" r:id="rId3"/>
-    <sheet name="4.新闻中心" sheetId="5" r:id="rId4"/>
-    <sheet name="5.智能知识库" sheetId="6" r:id="rId5"/>
-    <sheet name="6.智能楼宇" sheetId="7" r:id="rId6"/>
-    <sheet name="7.空气质量" sheetId="8" r:id="rId7"/>
+    <sheet name="总计" sheetId="14" r:id="rId1"/>
+    <sheet name="1.创意设计" sheetId="1" r:id="rId2"/>
+    <sheet name="2.创意实现" sheetId="3" r:id="rId3"/>
+    <sheet name="3.智能沙盘" sheetId="4" r:id="rId4"/>
+    <sheet name="4.新闻中心" sheetId="5" r:id="rId5"/>
+    <sheet name="5.智能知识库" sheetId="6" r:id="rId6"/>
+    <sheet name="6.智能楼宇" sheetId="7" r:id="rId7"/>
+    <sheet name="7.空气质量" sheetId="8" r:id="rId8"/>
+    <sheet name="8.内容发布" sheetId="13" r:id="rId9"/>
+    <sheet name="9.网络安全" sheetId="12" r:id="rId10"/>
+    <sheet name="10.导视系统" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
   <si>
     <t>序号</t>
   </si>
@@ -93,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五楼创新教室设备清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木工专用台锯系统</t>
   </si>
   <si>
@@ -112,22 +112,10 @@
     <t>开天激光</t>
   </si>
   <si>
-    <t>光纤切割机床</t>
-  </si>
-  <si>
-    <t>铜铝不锈钢加工</t>
-  </si>
-  <si>
     <t>光纤打标机床</t>
   </si>
   <si>
     <t>全材质精加工</t>
-  </si>
-  <si>
-    <t>CO2切割机床(加工亚克力）</t>
-  </si>
-  <si>
-    <t>大幅面亚克力加工</t>
   </si>
   <si>
     <t>CO2打标机床(加工亚克力）</t>
@@ -409,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BDM3275UP，32英寸，4K（3840 × 2160）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Philips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,45 +474,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wolfram智能可计算搜索引擎及知识库本地版应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolfram Mathematica及相关插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000节点</t>
-    <rPh sb="4" eb="5">
-      <t>jie dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wolfram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地数据库接入</t>
-    <rPh sb="0" eb="1">
-      <t>ben di shu ju ku</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jie ru</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地知识数据库定制</t>
-    <rPh sb="0" eb="1">
-      <t>ben di</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi shi shu ju ku</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ding zhi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,12 +506,6 @@
     <t>空间预约系统</t>
   </si>
   <si>
-    <t>实时对讲系统</t>
-  </si>
-  <si>
-    <t>需要与电话进行绑定</t>
-  </si>
-  <si>
     <t>电子课表系统</t>
   </si>
   <si>
@@ -575,22 +515,10 @@
     <t>点名签到系统</t>
   </si>
   <si>
-    <t>巡班管理系统</t>
-  </si>
-  <si>
     <t>媒体公播系统</t>
   </si>
   <si>
     <t>信息管理系统</t>
-  </si>
-  <si>
-    <t>节能环保系统</t>
-  </si>
-  <si>
-    <t>集成摄像头、传感器</t>
-  </si>
-  <si>
-    <t>个人资讯系统</t>
   </si>
   <si>
     <t>定制集成</t>
@@ -628,19 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与室内摄像头系统对接</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xi tong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dui jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全楼智能楼宇门禁系统设备清单</t>
     <rPh sb="0" eb="1">
       <t>quan lou</t>
@@ -704,6 +619,418 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希沃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RVV3*2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管材辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火墙安全服务网关</t>
+  </si>
+  <si>
+    <t>安全过滤带宽10Gbps，网络吞吐量5.5Gbps</t>
+  </si>
+  <si>
+    <t>启明</t>
+  </si>
+  <si>
+    <t>威胁检测与智能分析系统</t>
+  </si>
+  <si>
+    <t>网络吞吐量1Gbps</t>
+  </si>
+  <si>
+    <t>安全审计系统</t>
+  </si>
+  <si>
+    <t>绿盟</t>
+  </si>
+  <si>
+    <t>网络安全审计系统</t>
+  </si>
+  <si>
+    <t>吞吐量1Gbps，</t>
+  </si>
+  <si>
+    <t>VPN可信接入网关</t>
+  </si>
+  <si>
+    <t>吞吐量1Gbps，支持AES等加密算法</t>
+  </si>
+  <si>
+    <t>深信服</t>
+  </si>
+  <si>
+    <t>安全中心</t>
+  </si>
+  <si>
+    <t>实时展现，数据分析</t>
+  </si>
+  <si>
+    <t>工业控制网络漏洞扫描系统</t>
+  </si>
+  <si>
+    <t>针对Modbus等协议</t>
+  </si>
+  <si>
+    <t>启明或绿盟</t>
+  </si>
+  <si>
+    <t>全楼信息安全及网络安全系统设备清单</t>
+    <rPh sb="0" eb="1">
+      <t>quan lou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin xi an quan ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wang luo an quan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全楼内容发布与展示系统设备清单</t>
+    <rPh sb="0" eb="1">
+      <t>quan lou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息发布平台</t>
+  </si>
+  <si>
+    <t>接收终端32寸</t>
+  </si>
+  <si>
+    <t>接收终端70寸</t>
+  </si>
+  <si>
+    <t>网络交换机</t>
+  </si>
+  <si>
+    <t>机柜</t>
+  </si>
+  <si>
+    <t>网线</t>
+  </si>
+  <si>
+    <t>电源线</t>
+  </si>
+  <si>
+    <t>管材辅料</t>
+  </si>
+  <si>
+    <t>施工调试</t>
+    <rPh sb="0" eb="1">
+      <t>shi gong tiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华视互动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节目编辑模块、发布版面设计等</t>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2GB内存、60GB固态硬盘、32寸高清屏</t>
+    <rPh sb="3" eb="4">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu tai ying pan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>g q o</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2GB内存、60GB固态硬盘、70寸高清屏</t>
+    <rPh sb="3" eb="4">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu tai ying pan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>g q o</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换容量：256Gbps、包转发率:78Mpps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19英寸标准1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">六类非屏蔽网线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五楼创意设计教室设备清单</t>
+    <rPh sb="2" eb="3">
+      <t>chuang yi she ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五楼创意实现教室设备清单</t>
+    <rPh sb="2" eb="3">
+      <t>chuang yi shi xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 创意设计</t>
+    <rPh sb="3" eb="4">
+      <t>chuang yi she ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 创意实现</t>
+    <rPh sb="3" eb="4">
+      <t>chuang yi shi xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 智能沙盘</t>
+    <rPh sb="3" eb="4">
+      <t>zhi neng sha pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 新闻中心</t>
+    <rPh sb="3" eb="4">
+      <t>xin wen zhong xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 智能知识库</t>
+    <rPh sb="3" eb="4">
+      <t>zhi neng zhi shi ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 智能楼宇</t>
+    <rPh sb="3" eb="4">
+      <t>zhi negn lou yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 空气质量</t>
+    <rPh sb="3" eb="4">
+      <t>kong qi zhi liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 内容发布</t>
+    <rPh sb="3" eb="4">
+      <t>nei rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 网络安全</t>
+    <rPh sb="3" eb="4">
+      <t>wang luo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDM3275UP，32英寸，4K（3840 × 2160）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z840，Xeon E5-26xx v3，256GB内存，1TB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolfram Mathematica、System Modeler及相关插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500节点</t>
+    <rPh sb="3" eb="4">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30在线开放节点</t>
+    <rPh sb="2" eb="3">
+      <t>zai xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai fang jie dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识系统</t>
+    <rPh sb="0" eb="1">
+      <t>biao zhi xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢、烤漆、木纹、丝网印等</t>
+    <rPh sb="0" eb="1">
+      <t>bu xiu gang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mu wen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>si wang yin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜景至成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告栏</t>
+    <rPh sb="0" eb="1">
+      <t>gong gao lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌标识系统</t>
+    <rPh sb="4" eb="5">
+      <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明亚克力</t>
+    <rPh sb="0" eb="1">
+      <t>tou ming ya ke li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂综合信息展示</t>
+    <rPh sb="6" eb="7">
+      <t>zhan shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合施工</t>
+    <rPh sb="0" eb="1">
+      <t>zong he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全楼室内视觉导引系统设备清单</t>
+    <rPh sb="0" eb="1">
+      <t>quan lou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi nei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.导视系统</t>
+    <rPh sb="3" eb="4">
+      <t>dao shi xi tong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,9 +1041,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -784,6 +1111,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -843,7 +1175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -857,15 +1189,32 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,12 +1233,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -899,8 +1242,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="33">
+    <cellStyle name="Normal_Sheet1" xfId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 11" xfId="11"/>
     <cellStyle name="常规 12" xfId="10"/>
@@ -911,12 +1264,28 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1191,10 +1560,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H8"/>
+  <dimension ref="B3:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <f>'1.创意设计'!H9</f>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <f>'2.创意实现'!G20</f>
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <f>'3.智能沙盘'!G10</f>
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <f>'4.新闻中心'!G11</f>
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <f>'5.智能知识库'!G5</f>
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <f>'6.智能楼宇'!G14</f>
+        <v>148.39999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <f>'7.空气质量'!G5</f>
+        <v>152.61000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <f>'8.内容发布'!G12</f>
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <f>'9.网络安全'!G10</f>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12">
+        <f>'10.导视系统'!G8</f>
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C3:C12)</f>
+        <v>852.9899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*F3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <f>SUM(G3:G9)</f>
+        <v>109.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*F3</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G7" si="0">E4*F4</f>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <f>SUM(G3:G7)</f>
+        <v>72.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,6 +2123,17 @@
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
@@ -1259,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1286,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>0.8</v>
@@ -1323,18 +2253,30 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <f>SUM(H5:H8)</f>
+        <v>36.9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G20"/>
+      <selection activeCell="A2" sqref="A2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1348,15 +2290,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1384,11 +2326,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <v>9.5</v>
@@ -1397,6 +2339,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
+        <f t="shared" ref="G3:G16" si="0">E3*F3</f>
         <v>9.5</v>
       </c>
     </row>
@@ -1405,22 +2348,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
         <v>22</v>
       </c>
-      <c r="E4" s="5">
-        <v>29.5</v>
-      </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>29.5</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,68 +2372,71 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="5">
-        <v>21.5</v>
+        <v>4.2</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>21.5</v>
+        <f t="shared" si="0"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1497,22 +2444,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>4.2</v>
+        <f t="shared" si="0"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1520,22 +2468,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>8.4</v>
+        <f t="shared" si="0"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,22 +2492,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5">
-        <v>6.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,68 +2516,67 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>6.6</v>
+        <f t="shared" si="0"/>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5">
-        <v>2.2999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5">
-        <v>7.3</v>
+        <v>0.4</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>7.3</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1635,62 +2584,65 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E14" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5">
         <v>0.2</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3">
-        <v>0.6</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1698,20 +2650,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E17" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>1.4</v>
+        <f>E17*F17</f>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1719,20 +2672,21 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5">
         <v>0.2</v>
       </c>
       <c r="F18" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3">
-        <v>1.6</v>
+        <f t="shared" ref="G18:G19" si="1">E18*F18</f>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1740,20 +2694,21 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F19" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1761,293 +2716,15 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>12</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>141.30000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5">
-        <v>23.8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <f>E3*F3</f>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <f>SUM(G3:G9)</f>
-        <v>67.099999999999994</v>
+        <f>SUM(G3:G19)</f>
+        <v>95.1</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2741,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2078,15 +2755,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2114,23 +2791,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5">
-        <v>5.4</v>
+        <v>23.8</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3">
         <f>E3*F3</f>
-        <v>5.4</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2138,23 +2815,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G9" si="0">E4*F4</f>
-        <v>7.3</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,23 +2839,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5">
         <v>0.8</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,23 +2863,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5">
-        <v>2.2999999999999998</v>
+        <v>22.3</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,23 +2887,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2234,23 +2911,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,29 +2933,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
@@ -2288,7 +2961,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <f>SUM(G3:G9)</f>
-        <v>22.400000000000002</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2302,10 +2975,275 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*F3</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G10" si="0">E4*F4</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f>E6*F6</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>SUM(G3:G10)</f>
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2319,15 +3257,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2355,23 +3293,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5">
-        <v>21.1</v>
+        <v>70.2</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3">
         <f>E3*F3</f>
-        <v>21.1</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,61 +3317,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5">
-        <v>13.7</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G5" si="0">E4*F4</f>
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
+        <f t="shared" ref="G4" si="0">E4*F4</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <f>SUM(G3:G5)</f>
-        <v>44.9</v>
+        <f>SUM(G3:G4)</f>
+        <v>104.4</v>
       </c>
     </row>
   </sheetData>
@@ -2445,12 +3359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2464,19 +3378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2499,16 +3413,16 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>108</v>
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="5">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.8</v>
       </c>
       <c r="F3" s="3">
@@ -2523,23 +3437,23 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>110</v>
+      <c r="B4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="5">
+        <v>92</v>
+      </c>
+      <c r="E4" s="4">
         <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G16" si="0">E4*F4</f>
+        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
         <v>30</v>
       </c>
     </row>
@@ -2547,16 +3461,16 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>111</v>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="5">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4">
         <v>16</v>
       </c>
       <c r="F5" s="3">
@@ -2571,14 +3485,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
@@ -2595,14 +3509,14 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>93</v>
+      <c r="B7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3">
         <v>16</v>
@@ -2619,14 +3533,14 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>96</v>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -2643,14 +3557,12 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -2667,12 +3579,12 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -2689,14 +3601,12 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -2713,126 +3623,56 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <f>SUM(G3:G16)</f>
-        <v>168.2</v>
+        <f>SUM(G3:G13)</f>
+        <v>148.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2844,11 +3684,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
@@ -2863,19 +3703,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2898,54 +3738,54 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>115</v>
+      <c r="B3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5">
         <v>2.6</v>
       </c>
       <c r="F3" s="3">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3">
         <f>E3*F3</f>
-        <v>62.400000000000006</v>
+        <v>148.20000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>118</v>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5">
         <v>0.09</v>
       </c>
       <c r="F4" s="3">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4" si="0">E4*F4</f>
-        <v>2.16</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>107</v>
+      <c r="B5" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2953,7 +3793,293 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <f>SUM(G3:G4)</f>
-        <v>64.56</v>
+        <v>152.61000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.85</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*F3</f>
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G11" si="0">E4*F4</f>
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <f>SUM(G3:G11)</f>
+        <v>29.88</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1020" windowWidth="29660" windowHeight="20780" tabRatio="500"/>
+    <workbookView xWindow="18220" yWindow="2680" windowWidth="29660" windowHeight="20780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="14" r:id="rId1"/>
@@ -118,12 +118,6 @@
     <t>全材质精加工</t>
   </si>
   <si>
-    <t>CO2打标机床(加工亚克力）</t>
-  </si>
-  <si>
-    <t>全材质表面打标</t>
-  </si>
-  <si>
     <t>组合式多功能工作台</t>
   </si>
   <si>
@@ -1031,6 +1025,20 @@
     <t>10.导视系统</t>
     <rPh sb="3" eb="4">
       <t>dao shi xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2切割机床(加工亚克力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚克力加工</t>
+    <rPh sb="0" eb="1">
+      <t>ya ke li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia gong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,7 +1222,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1249,6 +1257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1573,7 +1584,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <f>'1.创意设计'!H9</f>
@@ -1582,16 +1593,16 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <f>'2.创意实现'!G20</f>
-        <v>95.1</v>
+        <v>102.60000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <f>'3.智能沙盘'!G10</f>
@@ -1600,7 +1611,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <f>'4.新闻中心'!G11</f>
@@ -1609,7 +1620,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <f>'5.智能知识库'!G5</f>
@@ -1618,7 +1629,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <f>'6.智能楼宇'!G14</f>
@@ -1627,7 +1638,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <f>'7.空气质量'!G5</f>
@@ -1636,7 +1647,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <f>'8.内容发布'!G12</f>
@@ -1645,7 +1656,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <f>'9.网络安全'!G10</f>
@@ -1654,7 +1665,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12">
         <f>'10.导视系统'!G8</f>
@@ -1663,11 +1674,11 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
-        <v>852.9899999999999</v>
+        <v>860.4899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1731,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E3" s="4">
         <v>20</v>
@@ -1755,13 +1766,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4">
         <v>12</v>
@@ -1779,13 +1790,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E5" s="3">
         <v>15</v>
@@ -1803,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="3">
         <v>12</v>
@@ -1827,13 +1838,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -1851,13 +1862,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3">
         <v>10.5</v>
@@ -1875,13 +1886,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E9" s="3">
         <v>10</v>
@@ -1897,7 +1908,7 @@
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1937,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1972,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E3" s="4">
         <v>2.4</v>
@@ -1996,13 +2007,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4">
         <v>3.1</v>
@@ -2020,13 +2031,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="3">
         <v>2.1</v>
@@ -2044,13 +2055,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3">
         <v>4.3</v>
@@ -2068,11 +2079,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="3">
         <v>7.2</v>
@@ -2088,7 +2099,7 @@
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2125,7 +2136,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2189,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -2216,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>0.8</v>
@@ -2255,7 +2266,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <f>SUM(H5:H8)</f>
@@ -2275,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2291,7 +2302,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2371,24 +2382,24 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+      <c r="B5" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="5">
-        <v>14</v>
+        <v>21.5</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2396,13 +2407,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="5">
         <v>4.2</v>
@@ -2420,13 +2431,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5">
         <v>8.4</v>
@@ -2447,10 +2458,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5">
         <v>6.5</v>
@@ -2471,10 +2482,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5">
         <v>6.6</v>
@@ -2495,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5">
         <v>2.2999999999999998</v>
@@ -2516,13 +2527,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5">
         <v>7.3</v>
@@ -2540,11 +2551,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5">
         <v>0.5</v>
@@ -2562,11 +2573,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5">
         <v>0.4</v>
@@ -2584,11 +2595,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5">
         <v>0.2</v>
@@ -2606,11 +2617,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="5">
         <v>0.2</v>
@@ -2628,11 +2639,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="5">
         <v>0.2</v>
@@ -2650,11 +2661,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5">
         <v>0.5</v>
@@ -2672,11 +2683,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5">
         <v>0.2</v>
@@ -2694,11 +2705,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="5">
         <v>0.7</v>
@@ -2716,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
@@ -2724,7 +2735,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3">
         <f>SUM(G3:G19)</f>
-        <v>95.1</v>
+        <v>102.60000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2791,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5">
         <v>23.8</v>
@@ -2815,13 +2826,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5">
         <v>1.2</v>
@@ -2839,13 +2850,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>0.8</v>
@@ -2863,13 +2874,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5">
         <v>22.3</v>
@@ -2887,13 +2898,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5">
         <v>1.5</v>
@@ -2911,11 +2922,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5">
         <v>0.1</v>
@@ -2933,11 +2944,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5">
         <v>0.2</v>
@@ -2953,7 +2964,7 @@
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
@@ -2993,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3028,13 +3039,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5">
         <v>5.4</v>
@@ -3052,13 +3063,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5">
         <v>7.3</v>
@@ -3076,13 +3087,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="5">
         <v>0.8</v>
@@ -3103,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -3124,13 +3135,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5">
         <v>4.8</v>
@@ -3148,13 +3159,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5">
         <v>1.4</v>
@@ -3172,13 +3183,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5">
         <v>2.1</v>
@@ -3196,13 +3207,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="5">
         <v>4.2</v>
@@ -3218,7 +3229,7 @@
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
@@ -3258,7 +3269,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3293,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5">
         <v>70.2</v>
@@ -3317,13 +3328,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5">
         <v>34.200000000000003</v>
@@ -3339,7 +3350,7 @@
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
@@ -3379,7 +3390,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3414,13 +3425,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="4">
         <v>0.8</v>
@@ -3438,13 +3449,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4">
         <v>30</v>
@@ -3462,13 +3473,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4">
         <v>16</v>
@@ -3486,13 +3497,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
@@ -3510,13 +3521,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3">
         <v>16</v>
@@ -3534,13 +3545,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -3558,11 +3569,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -3580,11 +3591,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -3602,11 +3613,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -3624,11 +3635,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -3646,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -3664,7 +3675,7 @@
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3704,7 +3715,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3739,13 +3750,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5">
         <v>2.6</v>
@@ -3763,13 +3774,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="5">
         <v>0.09</v>
@@ -3785,7 +3796,7 @@
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3826,7 +3837,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3861,13 +3872,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3">
         <v>6.85</v>
@@ -3885,13 +3896,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3">
         <v>0.82</v>
@@ -3909,13 +3920,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3">
         <v>2.95</v>
@@ -3933,13 +3944,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3">
         <v>0.56999999999999995</v>
@@ -3957,13 +3968,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3">
         <v>0.12</v>
@@ -3981,13 +3992,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3">
         <v>7.4999999999999997E-2</v>
@@ -4005,13 +4016,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3">
         <v>8.0000000000000004E-4</v>
@@ -4029,13 +4040,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3">
         <v>0.7</v>
@@ -4053,7 +4064,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4071,7 +4082,7 @@
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18220" yWindow="2680" windowWidth="29660" windowHeight="20780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="15840" yWindow="1280" windowWidth="29660" windowHeight="20780" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="175">
   <si>
     <t>序号</t>
   </si>
@@ -772,13 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>节目编辑模块、发布版面设计等</t>
-    <rPh sb="13" eb="14">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2GB内存、60GB固态硬盘、32寸高清屏</t>
     <rPh sb="3" eb="4">
       <t>nei cun</t>
@@ -1039,6 +1032,47 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>jia gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理平台</t>
+    <rPh sb="0" eb="1">
+      <t>wen jian guan li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节目编辑</t>
+    <rPh sb="0" eb="1">
+      <t>jie mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <rPh sb="0" eb="1">
+      <t>xi tong guan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播表编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节目单管理系统</t>
+    <rPh sb="0" eb="1">
+      <t>jie mu dan guan li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi tong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1253,13 +1287,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1618,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <f>'1.创意设计'!H9</f>
@@ -1593,7 +1627,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <f>'2.创意实现'!G20</f>
@@ -1602,7 +1636,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <f>'3.智能沙盘'!G10</f>
@@ -1611,7 +1645,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <f>'4.新闻中心'!G11</f>
@@ -1620,7 +1654,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <f>'5.智能知识库'!G5</f>
@@ -1629,7 +1663,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <f>'6.智能楼宇'!G14</f>
@@ -1638,7 +1672,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <f>'7.空气质量'!G5</f>
@@ -1647,16 +1681,16 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10">
-        <f>'8.内容发布'!G12</f>
+        <f>'8.内容发布'!G14</f>
         <v>29.88</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <f>'9.网络安全'!G10</f>
@@ -1665,7 +1699,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12">
         <f>'10.导视系统'!G8</f>
@@ -1706,15 +1740,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1947,15 +1981,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1983,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E3" s="4">
         <v>2.4</v>
@@ -2007,13 +2041,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E4" s="4">
         <v>3.1</v>
@@ -2031,13 +2065,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="3">
         <v>2.1</v>
@@ -2055,13 +2089,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E6" s="3">
         <v>4.3</v>
@@ -2079,11 +2113,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3">
         <v>7.2</v>
@@ -2135,15 +2169,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2286,7 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2301,15 +2335,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2382,11 +2416,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
@@ -2766,15 +2800,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3003,15 +3037,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3090,7 +3124,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>66</v>
@@ -3114,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -3268,15 +3302,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3307,7 +3341,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>74</v>
@@ -3328,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>74</v>
@@ -3389,15 +3423,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3714,15 +3748,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3818,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3836,15 +3870,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3875,116 +3909,116 @@
         <v>127</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="3">
-        <v>6.85</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3">
         <f>E3*F3</f>
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="3">
-        <v>0.82</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F4" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G11" si="0">E4*F4</f>
-        <v>13.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G4:G5" si="0">E4*F4</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3">
-        <v>2.95</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E6" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G6:G13" si="1">E6*F6</f>
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3">
-        <v>0.12</v>
+        <v>2.95</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>2.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3992,23 +4026,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -4016,23 +4050,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>0.12</v>
       </c>
       <c r="F9" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -4040,23 +4074,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
-        <v>0.7</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -4064,32 +4098,80 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>3.5</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8" t="s">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <f>SUM(G3:G11)</f>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <f>SUM(G3:G13)</f>
         <v>29.88</v>
       </c>
     </row>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="1280" windowWidth="29660" windowHeight="20780" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="1440" yWindow="460" windowWidth="40500" windowHeight="26680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="173">
   <si>
     <t>序号</t>
   </si>
@@ -112,12 +112,6 @@
     <t>开天激光</t>
   </si>
   <si>
-    <t>光纤打标机床</t>
-  </si>
-  <si>
-    <t>全材质精加工</t>
-  </si>
-  <si>
     <t>组合式多功能工作台</t>
   </si>
   <si>
@@ -161,19 +155,6 @@
   </si>
   <si>
     <t>总计</t>
-  </si>
-  <si>
-    <t>沙盘组装桌</t>
-    <rPh sb="0" eb="1">
-      <t>sha pan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zu zhuang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宽3米，长5米</t>
@@ -200,19 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工业级铝合金机电搭建套件</t>
-    <rPh sb="3" eb="4">
-      <t>lü he jin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji dian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>da jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结构件、连接件、传动部件、电子模块、等</t>
     <rPh sb="0" eb="1">
       <t>jie gou jian</t>
@@ -294,31 +262,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工业系统套件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相关执行机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业级桌面机器手臂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下二智能工厂沙盘系统设备清单</t>
-    <rPh sb="0" eb="1">
-      <t>di xia er</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhi neng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong chang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xi tong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,9 +441,6 @@
     <t>基于大数据的统计分析</t>
   </si>
   <si>
-    <t>空间预约系统</t>
-  </si>
-  <si>
     <t>电子课表系统</t>
   </si>
   <si>
@@ -823,13 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五楼创意实现教室设备清单</t>
-    <rPh sb="2" eb="3">
-      <t>chuang yi shi xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 创意设计</t>
     <rPh sb="3" eb="4">
       <t>chuang yi she ji</t>
@@ -928,13 +862,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识系统</t>
-    <rPh sb="0" eb="1">
-      <t>biao zhi xi tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不锈钢、烤漆、木纹、丝网印等</t>
     <rPh sb="0" eb="1">
       <t>bu xiu gang</t>
@@ -1073,6 +1000,107 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五楼创意实现制作工作室清单</t>
+    <rPh sb="2" eb="3">
+      <t>chuang yi shi xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gogn zuo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下二量产化工程设计服务平台清单</t>
+    <rPh sb="0" eb="1">
+      <t>di xia er</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang chan she ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong cheng she ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ping tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线模拟套件</t>
+    <rPh sb="0" eb="1">
+      <t>sheng chan xian mo ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精度工业机器人</t>
+    <rPh sb="0" eb="1">
+      <t>gao jing d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong ye</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应链模拟套件</t>
+    <rPh sb="0" eb="1">
+      <t>gong ying lian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo ni</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园信息系统数据接口</t>
+    <rPh sb="0" eb="1">
+      <t>xiao yuan xin xi xi tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu ju jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共区域标识系统</t>
+    <rPh sb="0" eb="1">
+      <t>gong ogng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao zhi xi tong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,7 +1113,7 @@
     <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1158,6 +1186,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="8"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1217,7 +1273,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1255,8 +1311,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1284,9 +1350,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,8 +1359,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="43">
     <cellStyle name="Normal_Sheet1" xfId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 11" xfId="11"/>
@@ -1317,6 +1416,11 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1331,6 +1435,11 @@
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1607,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1727,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <f>'1.创意设计'!H9</f>
@@ -1627,25 +1736,25 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C4">
-        <f>'2.创意实现'!G20</f>
-        <v>102.60000000000001</v>
+        <f>'2.创意实现'!G19</f>
+        <v>80.600000000000009</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <f>'3.智能沙盘'!G10</f>
-        <v>67.099999999999994</v>
+        <v>56.599999999999994</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <f>'4.新闻中心'!G11</f>
@@ -1654,7 +1763,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <f>'5.智能知识库'!G5</f>
@@ -1663,16 +1772,16 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <f>'6.智能楼宇'!G14</f>
-        <v>148.39999999999998</v>
+        <v>148.4</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C9">
         <f>'7.空气质量'!G5</f>
@@ -1681,16 +1790,16 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <f>'8.内容发布'!G14</f>
-        <v>29.88</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <f>'9.网络安全'!G10</f>
@@ -1699,20 +1808,20 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <f>'10.导视系统'!G8</f>
-        <v>72.3</v>
+        <v>9.0400000000000009</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
-        <v>860.4899999999999</v>
+        <v>775.38999999999987</v>
       </c>
     </row>
   </sheetData>
@@ -1725,30 +1834,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1776,13 +1885,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4">
         <v>20</v>
@@ -1800,13 +1909,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4">
         <v>12</v>
@@ -1824,13 +1933,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3">
         <v>15</v>
@@ -1848,13 +1957,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3">
         <v>12</v>
@@ -1872,13 +1981,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -1896,13 +2005,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3">
         <v>10.5</v>
@@ -1920,13 +2029,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3">
         <v>10</v>
@@ -1942,7 +2051,7 @@
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1966,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
@@ -1981,15 +2090,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2017,23 +2126,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="3">
         <v>8</v>
       </c>
       <c r="G3" s="3">
         <f>E3*F3</f>
-        <v>19.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,23 +2150,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4">
-        <v>3.1</v>
+        <v>0.16</v>
       </c>
       <c r="F4" s="3">
         <v>8</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G7" si="0">E4*F4</f>
-        <v>24.8</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2065,23 +2174,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3">
-        <v>2.1</v>
+        <v>0.32</v>
       </c>
       <c r="F5" s="3">
         <v>8</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2089,23 +2198,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2113,27 +2222,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2141,7 +2250,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <f>SUM(G3:G7)</f>
-        <v>72.3</v>
+        <v>9.0400000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2157,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,15 +2278,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2234,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -2261,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>0.8</v>
@@ -2300,7 +2409,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <f>SUM(H5:H8)</f>
@@ -2318,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2335,15 +2444,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2384,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G16" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G15" si="0">E3*F3</f>
         <v>9.5</v>
       </c>
     </row>
@@ -2392,48 +2501,48 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="B4" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>168</v>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5">
-        <v>21.5</v>
+        <v>4.2</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2441,23 +2550,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="5">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,23 +2574,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="5">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,23 +2598,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,23 +2622,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5">
-        <v>6.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2537,47 +2646,45 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5">
-        <v>2.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2585,21 +2692,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,43 +2714,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="5">
         <v>0.2</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2651,21 +2758,21 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5">
         <v>0.2</v>
       </c>
       <c r="F15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2673,21 +2780,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f>E16*F16</f>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2695,21 +2802,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="3">
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <f>E17*F17</f>
-        <v>6</v>
+        <f t="shared" ref="G17:G18" si="1">E17*F17</f>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2717,21 +2824,21 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F18" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:G19" si="1">E18*F18</f>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2739,37 +2846,15 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <f>SUM(G3:G19)</f>
-        <v>102.60000000000001</v>
+        <f>SUM(G3:G18)</f>
+        <v>80.600000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2785,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2800,15 +2885,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2836,13 +2921,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5">
         <v>23.8</v>
@@ -2860,13 +2945,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5">
         <v>1.2</v>
@@ -2884,13 +2969,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5">
         <v>0.8</v>
@@ -2908,13 +2993,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <v>22.3</v>
@@ -2932,23 +3017,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5">
         <v>1.5</v>
       </c>
       <c r="F7" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,11 +3041,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5">
         <v>0.1</v>
@@ -2978,11 +3063,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>0.2</v>
@@ -2998,7 +3083,7 @@
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
@@ -3006,7 +3091,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <f>SUM(G3:G9)</f>
-        <v>67.099999999999994</v>
+        <v>56.599999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +3107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3037,15 +3122,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3073,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="5">
         <v>5.4</v>
@@ -3097,13 +3182,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5">
         <v>7.3</v>
@@ -3121,13 +3206,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5">
         <v>0.8</v>
@@ -3148,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -3169,13 +3254,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5">
         <v>4.8</v>
@@ -3193,13 +3278,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5">
         <v>1.4</v>
@@ -3217,13 +3302,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>2.1</v>
@@ -3241,13 +3326,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5">
         <v>4.2</v>
@@ -3263,7 +3348,7 @@
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
@@ -3287,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3302,95 +3387,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="15">
         <v>70.2</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
         <f>E3*F3</f>
         <v>70.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="15">
         <v>34.200000000000003</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
         <f t="shared" ref="G4" si="0">E4*F4</f>
         <v>34.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
         <f>SUM(G3:G4)</f>
         <v>104.4</v>
       </c>
@@ -3408,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3423,15 +3508,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3459,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E3" s="4">
         <v>0.8</v>
@@ -3483,13 +3568,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4">
         <v>30</v>
@@ -3507,13 +3592,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4">
         <v>16</v>
@@ -3531,13 +3616,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
@@ -3555,23 +3640,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3579,13 +3664,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -3603,11 +3686,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -3625,11 +3708,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -3647,21 +3730,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3669,47 +3752,45 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="B13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
+        <v>16</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3717,7 +3798,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <f>SUM(G3:G13)</f>
-        <v>148.39999999999998</v>
+        <v>148.4</v>
       </c>
     </row>
   </sheetData>
@@ -3733,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3748,15 +3829,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3784,13 +3865,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E3" s="5">
         <v>2.6</v>
@@ -3808,13 +3889,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5">
         <v>0.09</v>
@@ -3830,7 +3911,7 @@
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3854,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3870,309 +3951,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="21">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
         <f>E3*F3</f>
         <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G5" si="0">E4*F4</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="E6" s="21">
         <v>0.82</v>
       </c>
-      <c r="F6" s="3">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="21">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" ref="G6:G13" si="1">E6*F6</f>
-        <v>13.94</v>
+        <v>24.599999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="21">
         <v>2.95</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="21">
         <v>0.12</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="21">
         <v>6</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="21">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="21">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="21">
         <v>1000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="21">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="21">
         <v>0.7</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="B13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
         <v>3.5</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
         <f>SUM(G3:G13)</f>
-        <v>29.88</v>
+        <v>40.54</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/创客空间配套设施建设项目申请-预算表.xlsx
@@ -17,12 +17,11 @@
     <sheet name="2.创意实现" sheetId="3" r:id="rId3"/>
     <sheet name="3.智能沙盘" sheetId="4" r:id="rId4"/>
     <sheet name="4.新闻中心" sheetId="5" r:id="rId5"/>
-    <sheet name="5.智能知识库" sheetId="6" r:id="rId6"/>
-    <sheet name="6.智能楼宇" sheetId="7" r:id="rId7"/>
-    <sheet name="7.空气质量" sheetId="8" r:id="rId8"/>
-    <sheet name="8.内容发布" sheetId="13" r:id="rId9"/>
-    <sheet name="9.网络安全" sheetId="12" r:id="rId10"/>
-    <sheet name="10.导视系统" sheetId="16" r:id="rId11"/>
+    <sheet name="6.智能楼宇" sheetId="7" r:id="rId6"/>
+    <sheet name="7.空气质量" sheetId="8" r:id="rId7"/>
+    <sheet name="8.内容发布" sheetId="13" r:id="rId8"/>
+    <sheet name="9.网络安全" sheetId="12" r:id="rId9"/>
+    <sheet name="10.导视系统" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="166">
   <si>
     <t>序号</t>
   </si>
@@ -408,24 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wolfram专有定制云服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolfram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三层数据中心设备清单</t>
-    <rPh sb="0" eb="1">
-      <t>san</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智慧空间管理终端设备</t>
   </si>
   <si>
@@ -792,13 +773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 智能知识库</t>
-    <rPh sb="3" eb="4">
-      <t>zhi neng zhi shi ku</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 智能楼宇</t>
     <rPh sb="3" eb="4">
       <t>zhi negn lou yu</t>
@@ -838,27 +812,6 @@
   </si>
   <si>
     <t>Z840，Xeon E5-26xx v3，256GB内存，1TB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolfram Mathematica、System Modeler及相关插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500节点</t>
-    <rPh sb="3" eb="4">
-      <t>jie dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30在线开放节点</t>
-    <rPh sb="2" eb="3">
-      <t>zai xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kai fang jie dian</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1113,7 +1066,7 @@
     <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1187,22 +1140,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="8"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1322,7 +1261,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1359,40 +1298,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1714,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C13"/>
+  <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1651,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <f>'1.创意设计'!H9</f>
@@ -1736,7 +1660,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <f>'2.创意实现'!G19</f>
@@ -1745,7 +1669,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <f>'3.智能沙盘'!G10</f>
@@ -1754,7 +1678,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <f>'4.新闻中心'!G11</f>
@@ -1763,65 +1687,56 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <f>'5.智能知识库'!G5</f>
-        <v>104.4</v>
+        <f>'6.智能楼宇'!G14</f>
+        <v>148.4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C8">
-        <f>'6.智能楼宇'!G14</f>
-        <v>148.4</v>
+        <f>'7.空气质量'!G5</f>
+        <v>152.61000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9">
-        <f>'7.空气质量'!G5</f>
-        <v>152.61000000000001</v>
+        <f>'8.内容发布'!G14</f>
+        <v>40.54</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C10">
-        <f>'8.内容发布'!G14</f>
-        <v>40.54</v>
+        <f>'9.网络安全'!G10</f>
+        <v>109.5</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C11">
-        <f>'9.网络安全'!G10</f>
-        <v>109.5</v>
+        <f>'10.导视系统'!G8</f>
+        <v>9.0400000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <f>'10.导视系统'!G8</f>
-        <v>9.0400000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C3:C12)</f>
-        <v>775.38999999999987</v>
+        <f>SUM(C3:C11)</f>
+        <v>670.9899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1831,247 +1746,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>E3*F3</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="4">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <f>SUM(G3:G9)</f>
-        <v>109.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2091,7 +1765,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2126,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4">
         <v>0.4</v>
@@ -2150,13 +1824,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E4" s="4">
         <v>0.16</v>
@@ -2174,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3">
         <v>0.32</v>
@@ -2198,13 +1872,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3">
         <v>1.2</v>
@@ -2222,11 +1896,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3">
         <v>0.8</v>
@@ -2279,7 +1953,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2409,7 +2083,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <f>SUM(H5:H8)</f>
@@ -2444,15 +2118,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2502,10 +2176,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -2886,7 +2560,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2921,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
@@ -2945,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>41</v>
@@ -2993,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -3017,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>37</v>
@@ -3209,7 +2883,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>59</v>
@@ -3233,7 +2907,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -3369,127 +3043,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="15">
-        <v>70.2</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <f>E3*F3</f>
-        <v>70.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="15">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" ref="G4" si="0">E4*F4</f>
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14">
-        <f>SUM(G3:G4)</f>
-        <v>104.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -3509,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3544,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4">
         <v>0.8</v>
@@ -3568,13 +3121,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4">
         <v>30</v>
@@ -3592,13 +3145,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="4">
         <v>16</v>
@@ -3616,13 +3169,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
@@ -3640,13 +3193,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -3664,11 +3217,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -3686,11 +3239,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -3708,11 +3261,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -3730,11 +3283,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -3752,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3"/>
@@ -3768,21 +3321,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21">
+      <c r="B13" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>16</v>
       </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3790,7 +3343,7 @@
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3810,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3830,7 +3383,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3865,13 +3418,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5">
         <v>2.6</v>
@@ -3889,13 +3442,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="5">
         <v>0.09</v>
@@ -3911,7 +3464,7 @@
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3931,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -3951,309 +3504,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
         <f>E3*F3</f>
         <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="B4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F4" s="21">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
         <f t="shared" ref="G4:G5" si="0">E4*F4</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="B5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F5" s="21">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="B6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="16">
         <v>0.82</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>30</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="16">
         <f t="shared" ref="G6:G13" si="1">E6*F6</f>
         <v>24.599999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="B7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="16">
         <v>2.95</v>
       </c>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="B8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
         <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="B9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="16">
         <v>0.12</v>
       </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="B10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <v>6</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="B11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="16">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <v>1000</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="B12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="16">
         <v>0.7</v>
       </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21">
+      <c r="B13" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>3.5</v>
       </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <f>SUM(G3:G13)</f>
         <v>40.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*F3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <f>SUM(G3:G9)</f>
+        <v>109.5</v>
       </c>
     </row>
   </sheetData>
